--- a/data/formatted/basicdata201516.xlsx
+++ b/data/formatted/basicdata201516.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144AE66-290A-4194-8997-A7EC28DB0E69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB21D5-0D4F-49E5-BB10-550F534FC4F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{BA391D40-F6D7-41FC-8C6A-182893BA2B67}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{BA391D40-F6D7-41FC-8C6A-182893BA2B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201516.xlsx
+++ b/data/formatted/basicdata201516.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB21D5-0D4F-49E5-BB10-550F534FC4F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25010CC4-DD5F-41B3-BF5B-96EA1AD1448C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{BA391D40-F6D7-41FC-8C6A-182893BA2B67}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{BA391D40-F6D7-41FC-8C6A-182893BA2B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201516.xlsx
+++ b/data/formatted/basicdata201516.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25010CC4-DD5F-41B3-BF5B-96EA1AD1448C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62226011-C205-4DB4-9029-3C650F3A078F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{BA391D40-F6D7-41FC-8C6A-182893BA2B67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA391D40-F6D7-41FC-8C6A-182893BA2B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,208 +114,208 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Little Rock NCAA</t>
-  </si>
-  <si>
-    <t>Austin Peay NCAA</t>
-  </si>
-  <si>
-    <t>Baylor NCAA</t>
-  </si>
-  <si>
-    <t>Buffalo NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>Cal State Bakersfield NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Chattanooga NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Colorado NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Dayton NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Fairleigh Dickinson NCAA</t>
-  </si>
-  <si>
-    <t>Florida Gulf Coast NCAA</t>
-  </si>
-  <si>
-    <t>Fresno State NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Green Bay NCAA</t>
-  </si>
-  <si>
-    <t>Hampton NCAA</t>
-  </si>
-  <si>
-    <t>Hawaii NCAA</t>
-  </si>
-  <si>
-    <t>Holy Cross NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Iona NCAA</t>
-  </si>
-  <si>
-    <t>Iowa State NCAA</t>
-  </si>
-  <si>
-    <t>Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Miami (FL) NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Middle Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Asheville NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Wilmington NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northern Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oregon State NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Providence NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Saint Joseph's NCAA</t>
-  </si>
-  <si>
-    <t>Seton Hall NCAA</t>
-  </si>
-  <si>
-    <t>South Dakota State NCAA</t>
-  </si>
-  <si>
-    <t>Southern California NCAA</t>
-  </si>
-  <si>
-    <t>Southern NCAA</t>
-  </si>
-  <si>
-    <t>Stephen F. Austin NCAA</t>
-  </si>
-  <si>
-    <t>Stony Brook NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Temple NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas Tech NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>Tulsa NCAA</t>
-  </si>
-  <si>
-    <t>Utah NCAA</t>
-  </si>
-  <si>
-    <t>Vanderbilt NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Weber State NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Wichita State NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
-  </si>
-  <si>
-    <t>Yale NCAA</t>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>Austin Peay</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Cal State Bakersfield</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Fairleigh Dickinson</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast</t>
+  </si>
+  <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Middle Tennessee</t>
+  </si>
+  <si>
+    <t>North Carolina-Asheville</t>
+  </si>
+  <si>
+    <t>North Carolina-Wilmington</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Yale</t>
   </si>
 </sst>
 </file>
